--- a/Magalie_virospore_quant/Data/Annulus_Quant/20250329_2253_viromultiquant_magalie.xlsx
+++ b/Magalie_virospore_quant/Data/Annulus_Quant/20250329_2253_viromultiquant_magalie.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joyobrien/GitHub/VirosporeQuant/Magalie_virospore_quant/Data/Annulus_Quant/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joyobrien/GitHub/danger.signal/Magalie_virospore_quant/Data/Annulus_Quant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8DAA11-74AE-FB48-AC51-FA30538AAD9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6D6616-54C3-5B4D-AAFC-3A8C56899B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44360" yWindow="4140" windowWidth="41380" windowHeight="22960" xr2:uid="{37C62476-F71F-904E-81D4-92641E2B1582}"/>
+    <workbookView xWindow="30240" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{37C62476-F71F-904E-81D4-92641E2B1582}"/>
   </bookViews>
   <sheets>
     <sheet name="raw_data" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="19">
   <si>
     <t>Plaque</t>
   </si>
@@ -90,6 +91,9 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>TMTC = 300</t>
   </si>
 </sst>
 </file>
@@ -471,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A62197E2-80A7-5F46-9F05-0768AE4F709D}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -823,8 +827,8 @@
       <c r="H10">
         <v>185</v>
       </c>
-      <c r="I10" t="s">
-        <v>15</v>
+      <c r="I10">
+        <v>300</v>
       </c>
       <c r="J10">
         <v>102</v>
@@ -1103,8 +1107,8 @@
       <c r="H18">
         <v>14</v>
       </c>
-      <c r="I18" t="s">
-        <v>15</v>
+      <c r="I18">
+        <v>300</v>
       </c>
       <c r="J18">
         <v>152</v>
@@ -1138,14 +1142,32 @@
       <c r="H19">
         <v>0</v>
       </c>
-      <c r="I19" t="s">
-        <v>15</v>
+      <c r="I19">
+        <v>300</v>
       </c>
       <c r="J19">
         <v>118</v>
       </c>
       <c r="K19" s="1">
         <v>0.15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E41D1C7-7056-E145-8610-A38F81F70B0C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
